--- a/data/pca/factorExposure/factorExposure_2018-03-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.006544502073034287</v>
+        <v>-0.01330289253921229</v>
       </c>
       <c r="C2">
-        <v>0.0220323481499543</v>
+        <v>0.02835225238709664</v>
       </c>
       <c r="D2">
-        <v>0.01977329163430096</v>
+        <v>-0.02341238131777673</v>
       </c>
       <c r="E2">
-        <v>0.006747665152302812</v>
+        <v>-0.01418935019454091</v>
       </c>
       <c r="F2">
-        <v>-0.07548057586853751</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.01321451313934271</v>
+      </c>
+      <c r="G2">
+        <v>-0.00823543911016731</v>
+      </c>
+      <c r="H2">
+        <v>-0.04450331072911245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09246306959453959</v>
+        <v>-0.05629052303097864</v>
       </c>
       <c r="C3">
-        <v>0.04174991465043925</v>
+        <v>0.07765686152062978</v>
       </c>
       <c r="D3">
-        <v>0.001274674035176612</v>
+        <v>-0.004103261842726302</v>
       </c>
       <c r="E3">
-        <v>0.04391540437418716</v>
+        <v>-0.0566091153036955</v>
       </c>
       <c r="F3">
-        <v>-0.3029258216615179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.04297154953056416</v>
+      </c>
+      <c r="G3">
+        <v>-0.01624971931338064</v>
+      </c>
+      <c r="H3">
+        <v>-0.1285357280119604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04279105121459294</v>
+        <v>-0.03262416203640386</v>
       </c>
       <c r="C4">
-        <v>0.005463249790906433</v>
+        <v>0.06376802118547195</v>
       </c>
       <c r="D4">
-        <v>0.03167330119821272</v>
+        <v>-0.01659295210937951</v>
       </c>
       <c r="E4">
-        <v>-0.03910658697779845</v>
+        <v>0.009128859899549801</v>
       </c>
       <c r="F4">
-        <v>-0.06038810335699629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.02216870937156085</v>
+      </c>
+      <c r="G4">
+        <v>-0.04494531523274091</v>
+      </c>
+      <c r="H4">
+        <v>-0.05544455700126696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03579165282928433</v>
+        <v>-0.01744868964778541</v>
       </c>
       <c r="C6">
-        <v>0.01260727409440985</v>
+        <v>0.06385609208283306</v>
       </c>
       <c r="D6">
-        <v>0.04160432309726451</v>
+        <v>-0.01152132129362177</v>
       </c>
       <c r="E6">
-        <v>-0.0272307856731124</v>
+        <v>0.01723732179286929</v>
       </c>
       <c r="F6">
-        <v>-0.01883823341984934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.00131988768945746</v>
+      </c>
+      <c r="G6">
+        <v>-0.02827270864206346</v>
+      </c>
+      <c r="H6">
+        <v>-0.04858868436613072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04040403307591281</v>
+        <v>-0.005589201317152763</v>
       </c>
       <c r="C7">
-        <v>-0.03397171631800856</v>
+        <v>0.03417483674692137</v>
       </c>
       <c r="D7">
-        <v>0.01854376460813822</v>
+        <v>-0.01016565399844455</v>
       </c>
       <c r="E7">
-        <v>-0.01062215028069728</v>
+        <v>0.02293093844835812</v>
       </c>
       <c r="F7">
-        <v>-0.02882789291630022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04408377667308353</v>
+      </c>
+      <c r="G7">
+        <v>0.002716269820001485</v>
+      </c>
+      <c r="H7">
+        <v>-0.02931397621833947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01107493045861826</v>
+        <v>0.004755291773883097</v>
       </c>
       <c r="C8">
-        <v>-0.007099577195135825</v>
+        <v>0.007666954493882004</v>
       </c>
       <c r="D8">
-        <v>0.03190295136148301</v>
+        <v>-0.001540206727973063</v>
       </c>
       <c r="E8">
-        <v>-0.03082726870571383</v>
+        <v>0.0004052528596416447</v>
       </c>
       <c r="F8">
-        <v>-0.05467534242618002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02072815408145431</v>
+      </c>
+      <c r="G8">
+        <v>-0.01754988855707278</v>
+      </c>
+      <c r="H8">
+        <v>-0.02630663762138196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03312729376212317</v>
+        <v>-0.01836601718126688</v>
       </c>
       <c r="C9">
-        <v>0.002945916791501675</v>
+        <v>0.04838692494828013</v>
       </c>
       <c r="D9">
-        <v>0.02811874696157373</v>
+        <v>-0.01126938663882507</v>
       </c>
       <c r="E9">
-        <v>-0.01352811770318764</v>
+        <v>0.006677219354978168</v>
       </c>
       <c r="F9">
-        <v>-0.07499475387825823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01551280515919137</v>
+      </c>
+      <c r="G9">
+        <v>-0.01825680334401714</v>
+      </c>
+      <c r="H9">
+        <v>-0.0523381976849103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0494867262979478</v>
+        <v>-0.1416166063257666</v>
       </c>
       <c r="C10">
-        <v>0.01459297378360766</v>
+        <v>-0.1387429296026517</v>
       </c>
       <c r="D10">
-        <v>-0.139953077401231</v>
+        <v>0.02212047586143979</v>
       </c>
       <c r="E10">
-        <v>0.06445818481636502</v>
+        <v>-0.03211562563354</v>
       </c>
       <c r="F10">
-        <v>-0.04865380333062427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.02182374161896818</v>
+      </c>
+      <c r="G10">
+        <v>0.02630846374523987</v>
+      </c>
+      <c r="H10">
+        <v>0.006353611690102818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02656864672338357</v>
+        <v>-0.0126924830003839</v>
       </c>
       <c r="C11">
-        <v>0.01682992934300968</v>
+        <v>0.04961954115557575</v>
       </c>
       <c r="D11">
-        <v>0.03884607794439069</v>
+        <v>0.001845765363200659</v>
       </c>
       <c r="E11">
-        <v>-0.02556349681463675</v>
+        <v>0.01101528383672476</v>
       </c>
       <c r="F11">
-        <v>-0.02067666060016824</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.003712632151249308</v>
+      </c>
+      <c r="G11">
+        <v>-0.01356984228927308</v>
+      </c>
+      <c r="H11">
+        <v>-0.04724090315861194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03980008018070291</v>
+        <v>-0.01792381489890834</v>
       </c>
       <c r="C12">
-        <v>0.01670548947495446</v>
+        <v>0.04770686907858219</v>
       </c>
       <c r="D12">
-        <v>0.03473282567839023</v>
+        <v>-0.001805282527228962</v>
       </c>
       <c r="E12">
-        <v>-0.03208372300859787</v>
+        <v>0.02047669440214945</v>
       </c>
       <c r="F12">
-        <v>0.006468349692447607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.004324690396662065</v>
+      </c>
+      <c r="G12">
+        <v>-0.009717927137372111</v>
+      </c>
+      <c r="H12">
+        <v>-0.01903709845360323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006988439561812603</v>
+        <v>-0.01386551794021314</v>
       </c>
       <c r="C13">
-        <v>0.01806148388256152</v>
+        <v>0.02543143854758956</v>
       </c>
       <c r="D13">
-        <v>0.006085568563990399</v>
+        <v>-0.01990780761743594</v>
       </c>
       <c r="E13">
-        <v>-0.009261327005607497</v>
+        <v>-0.01389423292732155</v>
       </c>
       <c r="F13">
-        <v>-0.06712468949834877</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.001705513872086671</v>
+      </c>
+      <c r="G13">
+        <v>-0.02957664484515729</v>
+      </c>
+      <c r="H13">
+        <v>-0.06547860155091152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02504120520190814</v>
+        <v>-0.007272313900881987</v>
       </c>
       <c r="C14">
-        <v>-0.005324389430854551</v>
+        <v>0.02112494268072756</v>
       </c>
       <c r="D14">
-        <v>0.01125740053325967</v>
+        <v>-0.005502984439035715</v>
       </c>
       <c r="E14">
-        <v>-0.01861824037340813</v>
+        <v>0.009511816667588326</v>
       </c>
       <c r="F14">
-        <v>-0.04303015624078255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02158980871909521</v>
+      </c>
+      <c r="G14">
+        <v>-0.01414725513351731</v>
+      </c>
+      <c r="H14">
+        <v>-0.01830098787291742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02923931988206722</v>
+        <v>-0.01504941598336775</v>
       </c>
       <c r="C16">
-        <v>0.01634350131312819</v>
+        <v>0.04366000187406648</v>
       </c>
       <c r="D16">
-        <v>0.04237226606871391</v>
+        <v>0.002257180749440113</v>
       </c>
       <c r="E16">
-        <v>-0.02591575208764741</v>
+        <v>0.01035615032344551</v>
       </c>
       <c r="F16">
-        <v>-0.02742319814902858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.00182996098561067</v>
+      </c>
+      <c r="G16">
+        <v>-0.0140221407573017</v>
+      </c>
+      <c r="H16">
+        <v>-0.03525685141748754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03425911457259923</v>
+        <v>-0.0155450595584381</v>
       </c>
       <c r="C19">
-        <v>0.0108550455132381</v>
+        <v>0.04481955527706281</v>
       </c>
       <c r="D19">
-        <v>0.03112453546995138</v>
+        <v>-0.009808381714399919</v>
       </c>
       <c r="E19">
-        <v>-0.04121832882108729</v>
+        <v>-0.01363735799402967</v>
       </c>
       <c r="F19">
-        <v>-0.07064267729745413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02613048156075317</v>
+      </c>
+      <c r="G19">
+        <v>-0.03362785469575691</v>
+      </c>
+      <c r="H19">
+        <v>-0.05816043951224367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001359719915789577</v>
+        <v>-0.001889629956852897</v>
       </c>
       <c r="C20">
-        <v>-0.01027006360374531</v>
+        <v>0.02183536691884786</v>
       </c>
       <c r="D20">
-        <v>-0.001755604528760029</v>
+        <v>-0.009759426943064909</v>
       </c>
       <c r="E20">
-        <v>-0.01471073250124928</v>
+        <v>-0.00741195939777233</v>
       </c>
       <c r="F20">
-        <v>-0.04738306018910045</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01774459467995527</v>
+      </c>
+      <c r="G20">
+        <v>-0.0216236391183459</v>
+      </c>
+      <c r="H20">
+        <v>-0.03094246155624499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02659745659146645</v>
+        <v>-0.006067138152980125</v>
       </c>
       <c r="C21">
-        <v>-0.008011496812114076</v>
+        <v>0.02285190301333991</v>
       </c>
       <c r="D21">
-        <v>0.02383719037063456</v>
+        <v>-0.01235048452252628</v>
       </c>
       <c r="E21">
-        <v>-0.01475550218370925</v>
+        <v>-0.006405858386528997</v>
       </c>
       <c r="F21">
-        <v>-0.02725335920793382</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02641354354034426</v>
+      </c>
+      <c r="G21">
+        <v>-0.006592750808467512</v>
+      </c>
+      <c r="H21">
+        <v>-0.03356149496035568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02300338046282375</v>
+        <v>-0.008484948893687916</v>
       </c>
       <c r="C24">
-        <v>0.0136513028270719</v>
+        <v>0.04117580681401181</v>
       </c>
       <c r="D24">
-        <v>0.02979345806972125</v>
+        <v>-0.003288017724922131</v>
       </c>
       <c r="E24">
-        <v>-0.02241004695106988</v>
+        <v>0.01494310399374268</v>
       </c>
       <c r="F24">
-        <v>-0.01552093465216392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.003525518138356862</v>
+      </c>
+      <c r="G24">
+        <v>-0.009397870771629822</v>
+      </c>
+      <c r="H24">
+        <v>-0.04004393206565769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03072414584658515</v>
+        <v>-0.02311404265809001</v>
       </c>
       <c r="C25">
-        <v>0.01412162765053918</v>
+        <v>0.04998878826109211</v>
       </c>
       <c r="D25">
-        <v>0.03364472373000909</v>
+        <v>-0.00608692438832585</v>
       </c>
       <c r="E25">
-        <v>-0.01950609287408348</v>
+        <v>0.0194618979711582</v>
       </c>
       <c r="F25">
-        <v>-0.02781086901922766</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.001943351621296588</v>
+      </c>
+      <c r="G25">
+        <v>-0.01758664024100108</v>
+      </c>
+      <c r="H25">
+        <v>-0.03870522189572811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01387983474396496</v>
+        <v>-0.005746086259708082</v>
       </c>
       <c r="C26">
-        <v>0.002864034532802666</v>
+        <v>0.006432919722764521</v>
       </c>
       <c r="D26">
-        <v>0.01431102558463745</v>
+        <v>-0.0221544326361857</v>
       </c>
       <c r="E26">
-        <v>0.007742713127426859</v>
+        <v>0.002014851069447527</v>
       </c>
       <c r="F26">
-        <v>-0.05266120590432691</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.009944177955180008</v>
+      </c>
+      <c r="G26">
+        <v>-0.001849816579886627</v>
+      </c>
+      <c r="H26">
+        <v>-0.01800577409411478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02059505556987926</v>
+        <v>-0.005943473500504235</v>
       </c>
       <c r="C27">
-        <v>0.0007270820853616432</v>
+        <v>0.00579613331201124</v>
       </c>
       <c r="D27">
-        <v>-0.003316425809582126</v>
+        <v>0.001592056317089845</v>
       </c>
       <c r="E27">
-        <v>-0.0281511312975522</v>
+        <v>0.003243844219333073</v>
       </c>
       <c r="F27">
-        <v>-0.008180149031418144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.01135586134114452</v>
+      </c>
+      <c r="G27">
+        <v>-0.008087627476159195</v>
+      </c>
+      <c r="H27">
+        <v>0.005879242143212478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.09166910226285895</v>
+        <v>-0.1926189886471658</v>
       </c>
       <c r="C28">
-        <v>0.02430482394510026</v>
+        <v>-0.175433134640998</v>
       </c>
       <c r="D28">
-        <v>-0.2055363254345659</v>
+        <v>0.01613238954092</v>
       </c>
       <c r="E28">
-        <v>0.1051398004717544</v>
+        <v>-0.02477325186478469</v>
       </c>
       <c r="F28">
-        <v>-0.04298921484473934</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03413577733641446</v>
+      </c>
+      <c r="G28">
+        <v>0.02949609617894875</v>
+      </c>
+      <c r="H28">
+        <v>0.00718999590678935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02711380904110564</v>
+        <v>-0.01191284672291509</v>
       </c>
       <c r="C29">
-        <v>-0.001021156128440652</v>
+        <v>0.01868946702526718</v>
       </c>
       <c r="D29">
-        <v>0.01098405968995517</v>
+        <v>-0.004461258430953866</v>
       </c>
       <c r="E29">
-        <v>-0.02058832980498154</v>
+        <v>0.00692745953347103</v>
       </c>
       <c r="F29">
-        <v>-0.04084067987070996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02085891994871099</v>
+      </c>
+      <c r="G29">
+        <v>-0.01299142577695561</v>
+      </c>
+      <c r="H29">
+        <v>-0.01009207297863311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03317043885239484</v>
+        <v>-0.02085074706386071</v>
       </c>
       <c r="C30">
-        <v>0.06029483816099102</v>
+        <v>0.0859677171267829</v>
       </c>
       <c r="D30">
-        <v>0.05684673520131073</v>
+        <v>-0.02099823219328508</v>
       </c>
       <c r="E30">
-        <v>-0.02822135851728192</v>
+        <v>-0.005864644543043428</v>
       </c>
       <c r="F30">
-        <v>-0.07596412929863759</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.02456025847193384</v>
+      </c>
+      <c r="G30">
+        <v>-0.04041233289791125</v>
+      </c>
+      <c r="H30">
+        <v>-0.07239581407976596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04740202756143843</v>
+        <v>-0.0334034706913452</v>
       </c>
       <c r="C31">
-        <v>0.0208263916203884</v>
+        <v>0.03238797400826995</v>
       </c>
       <c r="D31">
-        <v>0.02077525874571767</v>
+        <v>0.0007115339842184019</v>
       </c>
       <c r="E31">
-        <v>-0.02613976664903957</v>
+        <v>0.01300877491732882</v>
       </c>
       <c r="F31">
-        <v>-0.03485816283511699</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01043750836028762</v>
+      </c>
+      <c r="G31">
+        <v>-0.00184193442610719</v>
+      </c>
+      <c r="H31">
+        <v>-0.002463801529109717</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0228784915702137</v>
+        <v>0.001629948523204698</v>
       </c>
       <c r="C32">
-        <v>-0.02031107152191591</v>
+        <v>0.0139068569004825</v>
       </c>
       <c r="D32">
-        <v>0.04363794189294527</v>
+        <v>0.008100486312078692</v>
       </c>
       <c r="E32">
-        <v>-0.04245269459868908</v>
+        <v>-0.0009112535058168377</v>
       </c>
       <c r="F32">
-        <v>-0.04031941432056761</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.042437677675131</v>
+      </c>
+      <c r="G32">
+        <v>-0.04072603245566826</v>
+      </c>
+      <c r="H32">
+        <v>-0.0436816030837448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0296336971674542</v>
+        <v>-0.01635691383834806</v>
       </c>
       <c r="C33">
-        <v>0.03470338708216465</v>
+        <v>0.04762019089488802</v>
       </c>
       <c r="D33">
-        <v>0.04622966542822959</v>
+        <v>-0.009580720906938761</v>
       </c>
       <c r="E33">
-        <v>-0.01187081190399904</v>
+        <v>-0.008453451622843814</v>
       </c>
       <c r="F33">
-        <v>-0.05449963361535611</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.006253569030604288</v>
+      </c>
+      <c r="G33">
+        <v>-0.001163808324870915</v>
+      </c>
+      <c r="H33">
+        <v>-0.0497196903504501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03274734373453546</v>
+        <v>-0.02416281676469312</v>
       </c>
       <c r="C34">
-        <v>0.008690784608803827</v>
+        <v>0.05177606736555845</v>
       </c>
       <c r="D34">
-        <v>0.04111261361349061</v>
+        <v>0.010373032613228</v>
       </c>
       <c r="E34">
-        <v>-0.03280452003701617</v>
+        <v>0.0267837372506998</v>
       </c>
       <c r="F34">
-        <v>-0.01898105348154849</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.005284752242469733</v>
+      </c>
+      <c r="G34">
+        <v>-0.0148167503987464</v>
+      </c>
+      <c r="H34">
+        <v>-0.03770477678658192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01935302902458321</v>
+        <v>-0.01222068873275729</v>
       </c>
       <c r="C36">
-        <v>-0.00294761704627296</v>
+        <v>0.006666551202792013</v>
       </c>
       <c r="D36">
-        <v>0.002517122245267271</v>
+        <v>-0.008899840369791551</v>
       </c>
       <c r="E36">
-        <v>-0.01256697023040029</v>
+        <v>0.002918703670351338</v>
       </c>
       <c r="F36">
-        <v>-0.02975093472709933</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01368716061632099</v>
+      </c>
+      <c r="G36">
+        <v>-0.002779281450957462</v>
+      </c>
+      <c r="H36">
+        <v>-0.01144015075949355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01215971440781576</v>
+        <v>-0.02510513024126847</v>
       </c>
       <c r="C38">
-        <v>0.00779277284806385</v>
+        <v>0.02019761237589855</v>
       </c>
       <c r="D38">
-        <v>0.001784469160126247</v>
+        <v>0.01131099229938791</v>
       </c>
       <c r="E38">
-        <v>0.02222838997694139</v>
+        <v>0.008422345221452779</v>
       </c>
       <c r="F38">
-        <v>-0.04252260550677587</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.0001241065653319321</v>
+      </c>
+      <c r="G38">
+        <v>-0.0070094027060804</v>
+      </c>
+      <c r="H38">
+        <v>-0.03266405168039296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02324171293269429</v>
+        <v>-0.0003227577088861101</v>
       </c>
       <c r="C39">
-        <v>0.01345427649104464</v>
+        <v>0.08643397348045019</v>
       </c>
       <c r="D39">
-        <v>0.05811078672142633</v>
+        <v>-0.007556215934662088</v>
       </c>
       <c r="E39">
-        <v>-0.02867398406871793</v>
+        <v>0.01305575962666882</v>
       </c>
       <c r="F39">
-        <v>-0.04689244605696315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.009024556007263339</v>
+      </c>
+      <c r="G39">
+        <v>-0.02100057694232984</v>
+      </c>
+      <c r="H39">
+        <v>-0.0773950680405467</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01450042493085943</v>
+        <v>-0.02000764591668616</v>
       </c>
       <c r="C40">
-        <v>0.04057285591940647</v>
+        <v>0.02982154976277107</v>
       </c>
       <c r="D40">
-        <v>0.01876932303720398</v>
+        <v>-0.007185784794061002</v>
       </c>
       <c r="E40">
-        <v>-0.02994478469236824</v>
+        <v>-0.0001367943669147935</v>
       </c>
       <c r="F40">
-        <v>-0.02394097315955285</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02232506138974917</v>
+      </c>
+      <c r="G40">
+        <v>-0.02835168166947072</v>
+      </c>
+      <c r="H40">
+        <v>-0.04412975550312513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009940911814697886</v>
+        <v>-0.01175573449237489</v>
       </c>
       <c r="C41">
-        <v>0.001571329459448331</v>
+        <v>-0.007865441817961262</v>
       </c>
       <c r="D41">
-        <v>0.002050141759019259</v>
+        <v>-0.002296781075941882</v>
       </c>
       <c r="E41">
-        <v>0.01332034038403774</v>
+        <v>0.003619505906030096</v>
       </c>
       <c r="F41">
-        <v>-0.00567654461113212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.003912708374700095</v>
+      </c>
+      <c r="G41">
+        <v>0.01070341717786347</v>
+      </c>
+      <c r="H41">
+        <v>0.004514262428722784</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2049354179719314</v>
+        <v>-0.06867037463009643</v>
       </c>
       <c r="C42">
-        <v>0.2089411279579262</v>
+        <v>0.2039893142906959</v>
       </c>
       <c r="D42">
-        <v>0.3956429493387328</v>
+        <v>-0.1188944745185965</v>
       </c>
       <c r="E42">
-        <v>0.8036027143941302</v>
+        <v>-0.1052027074425732</v>
       </c>
       <c r="F42">
-        <v>0.2550612264277142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.2065871036041939</v>
+      </c>
+      <c r="G42">
+        <v>0.9299924934869752</v>
+      </c>
+      <c r="H42">
+        <v>-0.04203287125478902</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0103205801769803</v>
+        <v>-0.01259823124452651</v>
       </c>
       <c r="C43">
-        <v>0.003715293186188301</v>
+        <v>-0.00431251504277208</v>
       </c>
       <c r="D43">
-        <v>0.00482815452526166</v>
+        <v>-0.002876076212715999</v>
       </c>
       <c r="E43">
-        <v>-0.0007073221584615458</v>
+        <v>-0.0012752035968477</v>
       </c>
       <c r="F43">
-        <v>-0.02659466968979171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.004100694960790052</v>
+      </c>
+      <c r="G43">
+        <v>0.005795136860977522</v>
+      </c>
+      <c r="H43">
+        <v>-0.006352432023044777</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02313600533558734</v>
+        <v>-0.005124261312816705</v>
       </c>
       <c r="C44">
-        <v>-0.01082766133863702</v>
+        <v>0.03990172970684897</v>
       </c>
       <c r="D44">
-        <v>0.02597427142452844</v>
+        <v>-0.003281344507727344</v>
       </c>
       <c r="E44">
-        <v>0.004838325517627838</v>
+        <v>-0.003488597026842274</v>
       </c>
       <c r="F44">
-        <v>-0.08566874142594663</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02577601385680952</v>
+      </c>
+      <c r="G44">
+        <v>0.001299344186345973</v>
+      </c>
+      <c r="H44">
+        <v>-0.06039526013022876</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02009069556534888</v>
+        <v>-0.003986199042482619</v>
       </c>
       <c r="C46">
-        <v>0.006009286964470155</v>
+        <v>0.01372454838014078</v>
       </c>
       <c r="D46">
-        <v>0.03946838428609506</v>
+        <v>-0.009797354965805602</v>
       </c>
       <c r="E46">
-        <v>-0.02620585629829476</v>
+        <v>0.001445911576135431</v>
       </c>
       <c r="F46">
-        <v>-0.05676409488971386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01153957312105059</v>
+      </c>
+      <c r="G46">
+        <v>-0.007429057161377452</v>
+      </c>
+      <c r="H46">
+        <v>-0.0141907104925503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07721163018198823</v>
+        <v>-0.05361177005487122</v>
       </c>
       <c r="C47">
-        <v>0.04018342785524799</v>
+        <v>0.06762586599091137</v>
       </c>
       <c r="D47">
-        <v>0.01564379470492197</v>
+        <v>0.01142592785263332</v>
       </c>
       <c r="E47">
-        <v>-0.03264098432371875</v>
+        <v>0.01835110431532671</v>
       </c>
       <c r="F47">
-        <v>-0.002542540038240136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.006046674747110813</v>
+      </c>
+      <c r="G47">
+        <v>-0.002268342040777639</v>
+      </c>
+      <c r="H47">
+        <v>0.03772109655393777</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0189622183458393</v>
+        <v>-0.01258181596152163</v>
       </c>
       <c r="C48">
-        <v>0.007317625314371544</v>
+        <v>0.01650140672555259</v>
       </c>
       <c r="D48">
-        <v>0.01240181209999071</v>
+        <v>0.0005481344823085665</v>
       </c>
       <c r="E48">
-        <v>-0.01128306640208806</v>
+        <v>0.004677245989516757</v>
       </c>
       <c r="F48">
-        <v>-0.03112701764497524</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.005935907018712134</v>
+      </c>
+      <c r="G48">
+        <v>-0.004735180564719811</v>
+      </c>
+      <c r="H48">
+        <v>-0.01690330535795249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08569164017193742</v>
+        <v>-0.05457135656708357</v>
       </c>
       <c r="C50">
-        <v>0.01540055604611984</v>
+        <v>0.06419851092839444</v>
       </c>
       <c r="D50">
-        <v>0.03245300993619472</v>
+        <v>0.009301450327535458</v>
       </c>
       <c r="E50">
-        <v>-0.02345288317761049</v>
+        <v>0.01948792443413851</v>
       </c>
       <c r="F50">
-        <v>-0.01717819504985982</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02868644162608926</v>
+      </c>
+      <c r="G50">
+        <v>0.004822110529037104</v>
+      </c>
+      <c r="H50">
+        <v>0.02299146657139586</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01892461416959651</v>
+        <v>-0.01451825614688196</v>
       </c>
       <c r="C51">
-        <v>-0.00118138788212658</v>
+        <v>0.01655859979260179</v>
       </c>
       <c r="D51">
-        <v>-0.006930804637291245</v>
+        <v>-0.004465748099809272</v>
       </c>
       <c r="E51">
-        <v>-0.005474558656302243</v>
+        <v>0.00774288821103624</v>
       </c>
       <c r="F51">
-        <v>-0.09442949481816165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01380695293941314</v>
+      </c>
+      <c r="G51">
+        <v>-0.009982006837682767</v>
+      </c>
+      <c r="H51">
+        <v>-0.04830599127706341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08927728059187136</v>
+        <v>-0.06948992805307061</v>
       </c>
       <c r="C53">
-        <v>0.04039382442548986</v>
+        <v>0.1018062853230961</v>
       </c>
       <c r="D53">
-        <v>0.04304116982539541</v>
+        <v>0.01308837132884271</v>
       </c>
       <c r="E53">
-        <v>-0.04983549715251728</v>
+        <v>0.04594251466431793</v>
       </c>
       <c r="F53">
-        <v>0.0334144095520919</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.003406621006770545</v>
+      </c>
+      <c r="G53">
+        <v>-0.00259024323013206</v>
+      </c>
+      <c r="H53">
+        <v>0.04245686362826057</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02870843303040086</v>
+        <v>-0.022750752569342</v>
       </c>
       <c r="C54">
-        <v>-0.000676477757969164</v>
+        <v>0.002151063742289927</v>
       </c>
       <c r="D54">
-        <v>-0.00577292700298263</v>
+        <v>0.006785970713673607</v>
       </c>
       <c r="E54">
-        <v>-0.024583101141952</v>
+        <v>-0.002363937093962635</v>
       </c>
       <c r="F54">
-        <v>-0.02772631376061944</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02160894499564229</v>
+      </c>
+      <c r="G54">
+        <v>-0.01087710430068683</v>
+      </c>
+      <c r="H54">
+        <v>-0.006596385915374582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07892453569905467</v>
+        <v>-0.04909061088637474</v>
       </c>
       <c r="C55">
-        <v>0.03433171179597779</v>
+        <v>0.08971801774828546</v>
       </c>
       <c r="D55">
-        <v>0.05181696808919631</v>
+        <v>0.01037991172955531</v>
       </c>
       <c r="E55">
-        <v>-0.03658630444350686</v>
+        <v>0.03460089800137003</v>
       </c>
       <c r="F55">
-        <v>0.03175519924720457</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.00241495531251321</v>
+      </c>
+      <c r="G55">
+        <v>0.001732911660035524</v>
+      </c>
+      <c r="H55">
+        <v>0.04140080478258373</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1247959783322694</v>
+        <v>-0.09505208804910668</v>
       </c>
       <c r="C56">
-        <v>0.06686728373203696</v>
+        <v>0.1337381179820468</v>
       </c>
       <c r="D56">
-        <v>0.03126125112904688</v>
+        <v>0.0227308388979505</v>
       </c>
       <c r="E56">
-        <v>-0.06915085481418942</v>
+        <v>0.04650235522346439</v>
       </c>
       <c r="F56">
-        <v>0.06901946244816796</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.009253996779959001</v>
+      </c>
+      <c r="G56">
+        <v>-0.0122621581678536</v>
+      </c>
+      <c r="H56">
+        <v>0.08693758240022731</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03517133741843646</v>
+        <v>-0.02093721454697584</v>
       </c>
       <c r="C57">
-        <v>0.01823652583371144</v>
+        <v>0.03098861091653074</v>
       </c>
       <c r="D57">
-        <v>0.02594743494904862</v>
+        <v>-0.02169657174142685</v>
       </c>
       <c r="E57">
-        <v>0.03631447686041811</v>
+        <v>-0.0273297279294715</v>
       </c>
       <c r="F57">
-        <v>-0.05562462244202661</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02096605442909047</v>
+      </c>
+      <c r="G57">
+        <v>-0.004082224256746008</v>
+      </c>
+      <c r="H57">
+        <v>-0.06480980363737535</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1570146513449175</v>
+        <v>-0.07238985985794502</v>
       </c>
       <c r="C58">
-        <v>0.2085266318002376</v>
+        <v>0.2531340221824238</v>
       </c>
       <c r="D58">
-        <v>0.1932669760810563</v>
+        <v>-0.001735091538993132</v>
       </c>
       <c r="E58">
-        <v>-0.02907428946104085</v>
+        <v>-0.9163865931496116</v>
       </c>
       <c r="F58">
-        <v>-0.6048449396107276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2049184016659501</v>
+      </c>
+      <c r="G58">
+        <v>-0.1169522116044281</v>
+      </c>
+      <c r="H58">
+        <v>0.09244583718244549</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0738301569552637</v>
+        <v>-0.2107803898927866</v>
       </c>
       <c r="C59">
-        <v>0.04536924262570746</v>
+        <v>-0.1605343127490035</v>
       </c>
       <c r="D59">
-        <v>-0.1778969891388704</v>
+        <v>0.02431243504427679</v>
       </c>
       <c r="E59">
-        <v>0.0573285986387892</v>
+        <v>-0.02793927524666171</v>
       </c>
       <c r="F59">
-        <v>-0.07162802908673628</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.007132374876970363</v>
+      </c>
+      <c r="G59">
+        <v>-0.002599925177664714</v>
+      </c>
+      <c r="H59">
+        <v>-0.01590204242983678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1431268187919537</v>
+        <v>-0.23049678126274</v>
       </c>
       <c r="C60">
-        <v>0.1094493573507946</v>
+        <v>0.09731177984665879</v>
       </c>
       <c r="D60">
-        <v>0.004866892185817193</v>
+        <v>0.01330936917297547</v>
       </c>
       <c r="E60">
-        <v>0.0224417308681137</v>
+        <v>0.03625001929918235</v>
       </c>
       <c r="F60">
-        <v>-0.1528806801816897</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.0991753679545469</v>
+      </c>
+      <c r="G60">
+        <v>-0.1029964172900597</v>
+      </c>
+      <c r="H60">
+        <v>-0.3939086025979632</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02054974350502745</v>
+        <v>-0.01080609327773462</v>
       </c>
       <c r="C61">
-        <v>0.009401188811542446</v>
+        <v>0.06341456233410725</v>
       </c>
       <c r="D61">
-        <v>0.04028580890668031</v>
+        <v>-0.0006810060896048776</v>
       </c>
       <c r="E61">
-        <v>-0.01264357165822967</v>
+        <v>0.01439936090954651</v>
       </c>
       <c r="F61">
-        <v>-0.02134732324245767</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.0003802545367303659</v>
+      </c>
+      <c r="G61">
+        <v>-0.02052637278714431</v>
+      </c>
+      <c r="H61">
+        <v>-0.05663302976033348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01619688260845808</v>
+        <v>-0.005477978774130313</v>
       </c>
       <c r="C63">
-        <v>0.002852882938851221</v>
+        <v>0.0214442492010921</v>
       </c>
       <c r="D63">
-        <v>0.01785149272221826</v>
+        <v>-0.005946330759264114</v>
       </c>
       <c r="E63">
-        <v>-0.007010320921239183</v>
+        <v>0.01690173901784168</v>
       </c>
       <c r="F63">
-        <v>-0.006773417010532686</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.008482874335941668</v>
+      </c>
+      <c r="G63">
+        <v>-0.006838650745893383</v>
+      </c>
+      <c r="H63">
+        <v>-0.01376233038768086</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04157455579161546</v>
+        <v>-0.03366036307321946</v>
       </c>
       <c r="C64">
-        <v>0.004638732754453114</v>
+        <v>0.04497558835782076</v>
       </c>
       <c r="D64">
-        <v>0.02673856325991968</v>
+        <v>0.0001333956679006321</v>
       </c>
       <c r="E64">
-        <v>-0.02377741161988051</v>
+        <v>0.02673742754957124</v>
       </c>
       <c r="F64">
-        <v>-0.01531272657819912</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.002802682585123301</v>
+      </c>
+      <c r="G64">
+        <v>0.004232040500192169</v>
+      </c>
+      <c r="H64">
+        <v>-0.03553940881055886</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03971668898589256</v>
+        <v>-0.04020270095093782</v>
       </c>
       <c r="C65">
-        <v>0.01367367322418639</v>
+        <v>0.08319897534798838</v>
       </c>
       <c r="D65">
-        <v>0.04238132735141088</v>
+        <v>-0.009846140918925685</v>
       </c>
       <c r="E65">
-        <v>-0.03167018562352073</v>
+        <v>0.03659422610505893</v>
       </c>
       <c r="F65">
-        <v>-0.01136688587369266</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.01191135934082026</v>
+      </c>
+      <c r="G65">
+        <v>-0.03828929952773219</v>
+      </c>
+      <c r="H65">
+        <v>-0.06272969005952093</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03249406692071955</v>
+        <v>-0.008765568087718415</v>
       </c>
       <c r="C66">
-        <v>0.02659187640715878</v>
+        <v>0.1173567658153419</v>
       </c>
       <c r="D66">
-        <v>0.06165599667958371</v>
+        <v>-0.004158348042416667</v>
       </c>
       <c r="E66">
-        <v>-0.0557684050658406</v>
+        <v>0.01808339475746149</v>
       </c>
       <c r="F66">
-        <v>-0.0321078441995965</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01573715266293209</v>
+      </c>
+      <c r="G66">
+        <v>-0.04486854902194366</v>
+      </c>
+      <c r="H66">
+        <v>-0.08161719014179426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02460471120383018</v>
+        <v>-0.04937071434259777</v>
       </c>
       <c r="C67">
-        <v>0.0155831928001104</v>
+        <v>0.02949464294837413</v>
       </c>
       <c r="D67">
-        <v>-0.007831381927313072</v>
+        <v>0.01181659959296801</v>
       </c>
       <c r="E67">
-        <v>0.0170474564724881</v>
+        <v>0.01536346459263299</v>
       </c>
       <c r="F67">
-        <v>-0.02694398827498229</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.004175324010492148</v>
+      </c>
+      <c r="G67">
+        <v>-0.01429184594359775</v>
+      </c>
+      <c r="H67">
+        <v>-0.03191041648579966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08474911433564232</v>
+        <v>-0.2123074536428353</v>
       </c>
       <c r="C68">
-        <v>0.03780166847499405</v>
+        <v>-0.201586339872094</v>
       </c>
       <c r="D68">
-        <v>-0.2019772464727095</v>
+        <v>0.004823349891154338</v>
       </c>
       <c r="E68">
-        <v>0.07199386087093743</v>
+        <v>-0.04282813087673668</v>
       </c>
       <c r="F68">
-        <v>-0.0635897242129794</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.0249075131238248</v>
+      </c>
+      <c r="G68">
+        <v>0.03646588372902825</v>
+      </c>
+      <c r="H68">
+        <v>0.03215492472529218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06177923210953129</v>
+        <v>-0.05325451928710747</v>
       </c>
       <c r="C69">
-        <v>0.03250533176393289</v>
+        <v>0.06229775460405473</v>
       </c>
       <c r="D69">
-        <v>0.01412803430878472</v>
+        <v>0.01552502150969319</v>
       </c>
       <c r="E69">
-        <v>-0.03627406591272627</v>
+        <v>0.03085923658779753</v>
       </c>
       <c r="F69">
-        <v>-0.003040183808423185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.002036000449174893</v>
+      </c>
+      <c r="G69">
+        <v>-0.01529050459670544</v>
+      </c>
+      <c r="H69">
+        <v>0.008103509111433886</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08416881698300274</v>
+        <v>-0.1860671098067024</v>
       </c>
       <c r="C71">
-        <v>0.04183750517590181</v>
+        <v>-0.1566210029829536</v>
       </c>
       <c r="D71">
-        <v>-0.197107796526256</v>
+        <v>0.01058817719709935</v>
       </c>
       <c r="E71">
-        <v>0.1132203052732876</v>
+        <v>-0.04401336830336414</v>
       </c>
       <c r="F71">
-        <v>-0.06755869893458047</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02299876899535034</v>
+      </c>
+      <c r="G71">
+        <v>0.04334183411840614</v>
+      </c>
+      <c r="H71">
+        <v>0.007193218264468073</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.100433458265665</v>
+        <v>-0.05256509545167785</v>
       </c>
       <c r="C72">
-        <v>0.06367823700039063</v>
+        <v>0.103554561479577</v>
       </c>
       <c r="D72">
-        <v>0.07882247295979004</v>
+        <v>0.01720583317488381</v>
       </c>
       <c r="E72">
-        <v>-0.09290042244125249</v>
+        <v>0.04301020808773249</v>
       </c>
       <c r="F72">
-        <v>-0.09162267069264692</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.0257596629911448</v>
+      </c>
+      <c r="G72">
+        <v>-0.06006911955204328</v>
+      </c>
+      <c r="H72">
+        <v>-0.08750015793220328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1663190327202593</v>
+        <v>-0.2943827064178556</v>
       </c>
       <c r="C73">
-        <v>0.1778946452059077</v>
+        <v>0.1580181277504493</v>
       </c>
       <c r="D73">
-        <v>0.02450621648436292</v>
+        <v>0.01301964957212452</v>
       </c>
       <c r="E73">
-        <v>0.04419662867025349</v>
+        <v>0.03152856522001963</v>
       </c>
       <c r="F73">
-        <v>-0.1753225218186084</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1560086854921041</v>
+      </c>
+      <c r="G73">
+        <v>-0.1074605716365243</v>
+      </c>
+      <c r="H73">
+        <v>-0.4542999291958201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1148557556369529</v>
+        <v>-0.09247924111080935</v>
       </c>
       <c r="C74">
-        <v>0.06097452208524377</v>
+        <v>0.1357476700405754</v>
       </c>
       <c r="D74">
-        <v>0.0373000299939502</v>
+        <v>0.02257436820615785</v>
       </c>
       <c r="E74">
-        <v>-0.0528226780431263</v>
+        <v>0.05115939933263475</v>
       </c>
       <c r="F74">
-        <v>0.07397030970330858</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.005438306813144926</v>
+      </c>
+      <c r="G74">
+        <v>-0.008657004405792349</v>
+      </c>
+      <c r="H74">
+        <v>0.05637842586612093</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2053211698983878</v>
+        <v>-0.1966410561470164</v>
       </c>
       <c r="C75">
-        <v>0.1293893267479252</v>
+        <v>0.2298639258573382</v>
       </c>
       <c r="D75">
-        <v>0.03579464709916139</v>
+        <v>0.04763320560651275</v>
       </c>
       <c r="E75">
-        <v>-0.162358593031239</v>
+        <v>0.07834256851885585</v>
       </c>
       <c r="F75">
-        <v>0.1128826064362456</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.03168872721452373</v>
+      </c>
+      <c r="G75">
+        <v>-0.04365746409566953</v>
+      </c>
+      <c r="H75">
+        <v>0.18401042858211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2517910378841967</v>
+        <v>-0.1407489139875455</v>
       </c>
       <c r="C76">
-        <v>0.110354209857677</v>
+        <v>0.1955369387072286</v>
       </c>
       <c r="D76">
-        <v>0.03980312556432997</v>
+        <v>0.04063657884378003</v>
       </c>
       <c r="E76">
-        <v>-0.1878515834022102</v>
+        <v>0.1018107717142365</v>
       </c>
       <c r="F76">
-        <v>0.2174648955842605</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.007447584182265912</v>
+      </c>
+      <c r="G76">
+        <v>-0.02512400803260697</v>
+      </c>
+      <c r="H76">
+        <v>0.159165934118747</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09254261568883444</v>
+        <v>-0.04363928274225705</v>
       </c>
       <c r="C77">
-        <v>0.06139079042803182</v>
+        <v>0.08937267106191919</v>
       </c>
       <c r="D77">
-        <v>0.08081740381410595</v>
+        <v>-0.007245368022479036</v>
       </c>
       <c r="E77">
-        <v>0.03454493061761053</v>
+        <v>-0.02210051422244102</v>
       </c>
       <c r="F77">
-        <v>-0.08921568045729912</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01464086778290307</v>
+      </c>
+      <c r="G77">
+        <v>0.01589751307547949</v>
+      </c>
+      <c r="H77">
+        <v>-0.01700157103703973</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05335836172497231</v>
+        <v>-0.01979921859473489</v>
       </c>
       <c r="C78">
-        <v>0.0142629699165162</v>
+        <v>0.07548898262866098</v>
       </c>
       <c r="D78">
-        <v>0.09507911056539084</v>
+        <v>-0.00206129796916326</v>
       </c>
       <c r="E78">
-        <v>-0.04116530504528802</v>
+        <v>0.001999210369818673</v>
       </c>
       <c r="F78">
-        <v>-0.07540559704213373</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01479611798723615</v>
+      </c>
+      <c r="G78">
+        <v>-0.02356314113476519</v>
+      </c>
+      <c r="H78">
+        <v>-0.08592024575576868</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.5556332051661823</v>
+        <v>-0.09453177504279592</v>
       </c>
       <c r="C80">
-        <v>-0.8074966409267612</v>
+        <v>0.1119134071194052</v>
       </c>
       <c r="D80">
-        <v>0.05269447770508885</v>
+        <v>0.004666248434031479</v>
       </c>
       <c r="E80">
-        <v>0.0665384267221337</v>
+        <v>0.2202486107627325</v>
       </c>
       <c r="F80">
-        <v>-0.05281639639731157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.913299975979036</v>
+      </c>
+      <c r="G80">
+        <v>0.1914921342462658</v>
+      </c>
+      <c r="H80">
+        <v>-0.111228579431222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1677710577453617</v>
+        <v>-0.1225400565189056</v>
       </c>
       <c r="C81">
-        <v>0.08683993559182671</v>
+        <v>0.1468113446615651</v>
       </c>
       <c r="D81">
-        <v>0.01733559107459018</v>
+        <v>0.02908502036793413</v>
       </c>
       <c r="E81">
-        <v>-0.1232060206489881</v>
+        <v>0.05500477735029317</v>
       </c>
       <c r="F81">
-        <v>0.09659505919213812</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.0009602395649292585</v>
+      </c>
+      <c r="G81">
+        <v>-0.02067857541979784</v>
+      </c>
+      <c r="H81">
+        <v>0.1134088323825009</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.002621618153425633</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.001034719475456498</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.0005027540839402223</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.0116869449939747</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.004135191332171289</v>
+      </c>
+      <c r="G82">
+        <v>0.0006654942517058822</v>
+      </c>
+      <c r="H82">
+        <v>-0.002397426808807712</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03476023272187004</v>
+        <v>-0.02273063358267008</v>
       </c>
       <c r="C83">
-        <v>0.02426225686797089</v>
+        <v>0.0234239075514162</v>
       </c>
       <c r="D83">
-        <v>0.0222967975910061</v>
+        <v>-0.002373830774449854</v>
       </c>
       <c r="E83">
-        <v>0.02074895665394336</v>
+        <v>-0.01604466397950548</v>
       </c>
       <c r="F83">
-        <v>-0.05172671992363045</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.008185869430879001</v>
+      </c>
+      <c r="G83">
+        <v>-0.0007457390822365612</v>
+      </c>
+      <c r="H83">
+        <v>-0.04057061565951794</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2223588100406931</v>
+        <v>-0.1782449460631343</v>
       </c>
       <c r="C85">
-        <v>0.1289847093444435</v>
+        <v>0.2137450741102172</v>
       </c>
       <c r="D85">
-        <v>0.04149606946642103</v>
+        <v>0.03281371451447612</v>
       </c>
       <c r="E85">
-        <v>-0.1619106824831107</v>
+        <v>0.1035735130792852</v>
       </c>
       <c r="F85">
-        <v>0.16453005527143</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.05316366100292892</v>
+      </c>
+      <c r="G85">
+        <v>-0.02510772646643798</v>
+      </c>
+      <c r="H85">
+        <v>0.1270443495063921</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.005942504574637782</v>
+        <v>-0.007687983332970265</v>
       </c>
       <c r="C86">
-        <v>-0.002371092670399874</v>
+        <v>0.03318844336398969</v>
       </c>
       <c r="D86">
-        <v>0.05055103411152913</v>
+        <v>-0.006455566156013264</v>
       </c>
       <c r="E86">
-        <v>-0.002029391509832204</v>
+        <v>0.002152708659730382</v>
       </c>
       <c r="F86">
-        <v>-0.05826850063980989</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01073957431780393</v>
+      </c>
+      <c r="G86">
+        <v>0.01086656977985545</v>
+      </c>
+      <c r="H86">
+        <v>-0.07356382209215381</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02581143496405146</v>
+        <v>-0.001279874522628253</v>
       </c>
       <c r="C87">
-        <v>0.00938427004107564</v>
+        <v>0.04188849031990558</v>
       </c>
       <c r="D87">
-        <v>0.03952145049634359</v>
+        <v>-0.008001263248750903</v>
       </c>
       <c r="E87">
-        <v>-0.01187412175224723</v>
+        <v>-0.03616433777334922</v>
       </c>
       <c r="F87">
-        <v>-0.08887829562145536</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02591509468542435</v>
+      </c>
+      <c r="G87">
+        <v>-0.01765588458952675</v>
+      </c>
+      <c r="H87">
+        <v>-0.08326947520444233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.02495095620909558</v>
+        <v>-0.04324035144313497</v>
       </c>
       <c r="C88">
-        <v>-0.0004676205869513684</v>
+        <v>0.02018318698199194</v>
       </c>
       <c r="D88">
-        <v>-0.004094332648567343</v>
+        <v>-0.01671247917863389</v>
       </c>
       <c r="E88">
-        <v>-0.006795580799667066</v>
+        <v>0.01685743344759904</v>
       </c>
       <c r="F88">
-        <v>0.02672624906282825</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01353311030591623</v>
+      </c>
+      <c r="G88">
+        <v>-0.008144943839477541</v>
+      </c>
+      <c r="H88">
+        <v>0.0047200576797583</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1344406296314969</v>
+        <v>-0.3291531577334699</v>
       </c>
       <c r="C89">
-        <v>0.09431110103391407</v>
+        <v>-0.2802028302669095</v>
       </c>
       <c r="D89">
-        <v>-0.3496093919297145</v>
+        <v>0.01810812818944848</v>
       </c>
       <c r="E89">
-        <v>0.09396125842331472</v>
+        <v>-0.03702500121908994</v>
       </c>
       <c r="F89">
-        <v>-0.09043999202414509</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.00635582333837189</v>
+      </c>
+      <c r="G89">
+        <v>0.01996331901934462</v>
+      </c>
+      <c r="H89">
+        <v>0.02037816024525318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1066953861209713</v>
+        <v>-0.2737791771007726</v>
       </c>
       <c r="C90">
-        <v>0.04332033087798461</v>
+        <v>-0.2585774789015384</v>
       </c>
       <c r="D90">
-        <v>-0.334511565507146</v>
+        <v>0.01739666362654983</v>
       </c>
       <c r="E90">
-        <v>0.1142232282730457</v>
+        <v>-0.04241814469976671</v>
       </c>
       <c r="F90">
-        <v>-0.02202988619383944</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.02293380851538671</v>
+      </c>
+      <c r="G90">
+        <v>0.04731478984108312</v>
+      </c>
+      <c r="H90">
+        <v>0.0593951862091347</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2503588222871514</v>
+        <v>-0.1842011919550293</v>
       </c>
       <c r="C91">
-        <v>0.1642061704303573</v>
+        <v>0.2044474101488763</v>
       </c>
       <c r="D91">
-        <v>0.05748164266419117</v>
+        <v>0.04424469409411779</v>
       </c>
       <c r="E91">
-        <v>-0.1460379120489474</v>
+        <v>0.08723124020252995</v>
       </c>
       <c r="F91">
-        <v>0.2334436239250264</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.04166508592388687</v>
+      </c>
+      <c r="G91">
+        <v>-0.01780633422070746</v>
+      </c>
+      <c r="H91">
+        <v>0.1953798974928487</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1689334291731835</v>
+        <v>-0.279136998887683</v>
       </c>
       <c r="C92">
-        <v>0.08864165959540796</v>
+        <v>-0.1765779147686279</v>
       </c>
       <c r="D92">
-        <v>-0.4079112938039031</v>
+        <v>0.06093382648199583</v>
       </c>
       <c r="E92">
-        <v>0.0494887572168725</v>
+        <v>-0.04257227756015237</v>
       </c>
       <c r="F92">
-        <v>0.1311969136344868</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.04166986833272399</v>
+      </c>
+      <c r="G92">
+        <v>0.01916452019130382</v>
+      </c>
+      <c r="H92">
+        <v>0.146349335835934</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1149119476443755</v>
+        <v>-0.3078807083489823</v>
       </c>
       <c r="C93">
-        <v>0.09729054744987251</v>
+        <v>-0.2486349778362747</v>
       </c>
       <c r="D93">
-        <v>-0.3797830391967076</v>
+        <v>0.02659936105511393</v>
       </c>
       <c r="E93">
-        <v>0.1761380346922828</v>
+        <v>-0.05912663728782828</v>
       </c>
       <c r="F93">
-        <v>-0.03528269696814273</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01586896703252481</v>
+      </c>
+      <c r="G93">
+        <v>0.04666088335745387</v>
+      </c>
+      <c r="H93">
+        <v>-0.005999628427305194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2659603034696547</v>
+        <v>-0.2249469694570668</v>
       </c>
       <c r="C94">
-        <v>0.1928449830882067</v>
+        <v>0.2336302697022361</v>
       </c>
       <c r="D94">
-        <v>0.01118895194423523</v>
+        <v>0.03425049855261177</v>
       </c>
       <c r="E94">
-        <v>-0.2449768844823486</v>
+        <v>0.1126731643783097</v>
       </c>
       <c r="F94">
-        <v>0.1478554164105552</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.08017323691251206</v>
+      </c>
+      <c r="G94">
+        <v>-0.1022835811181716</v>
+      </c>
+      <c r="H94">
+        <v>0.4469226297037106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01961908903225002</v>
+        <v>-0.03249860381462148</v>
       </c>
       <c r="C95">
-        <v>0.1011521247309924</v>
+        <v>0.1074479549112928</v>
       </c>
       <c r="D95">
-        <v>0.03599953446122491</v>
+        <v>0.01246130580083342</v>
       </c>
       <c r="E95">
-        <v>-0.02987878186128586</v>
+        <v>-0.04192727821442887</v>
       </c>
       <c r="F95">
-        <v>-0.02494625038082589</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.07816442646188719</v>
+      </c>
+      <c r="G95">
+        <v>-0.0114697692618036</v>
+      </c>
+      <c r="H95">
+        <v>-0.06389074096607371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1401994300435296</v>
+        <v>-0.1867677332232959</v>
       </c>
       <c r="C98">
-        <v>0.1173096018766031</v>
+        <v>0.07858354931407976</v>
       </c>
       <c r="D98">
-        <v>-0.007877616275121863</v>
+        <v>0.03430329750717695</v>
       </c>
       <c r="E98">
-        <v>0.07596361260427777</v>
+        <v>-0.02219371446669308</v>
       </c>
       <c r="F98">
-        <v>-0.1610231489565444</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.06633215133161613</v>
+      </c>
+      <c r="G98">
+        <v>-0.02902419584430393</v>
+      </c>
+      <c r="H98">
+        <v>-0.3341430509881114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01258127252154781</v>
+        <v>-0.005785808393993018</v>
       </c>
       <c r="C101">
-        <v>-0.001393778799521501</v>
+        <v>0.02000787554197543</v>
       </c>
       <c r="D101">
-        <v>0.03604850277906195</v>
+        <v>-0.005390338544580688</v>
       </c>
       <c r="E101">
-        <v>-0.03350400848814299</v>
+        <v>-0.03167198041563098</v>
       </c>
       <c r="F101">
-        <v>-0.1818195369003612</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03311556604830026</v>
+      </c>
+      <c r="G101">
+        <v>-0.02813986339088594</v>
+      </c>
+      <c r="H101">
+        <v>-0.01226896362559683</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1115177666885141</v>
+        <v>-0.0926365660086868</v>
       </c>
       <c r="C102">
-        <v>0.0645937461995866</v>
+        <v>0.1078848118849139</v>
       </c>
       <c r="D102">
-        <v>0.01951908619993558</v>
+        <v>0.009722595161721611</v>
       </c>
       <c r="E102">
-        <v>-0.08208829729307682</v>
+        <v>0.0556530013571818</v>
       </c>
       <c r="F102">
-        <v>0.09052911334595844</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.02417704276461618</v>
+      </c>
+      <c r="G102">
+        <v>-0.01987155433381529</v>
+      </c>
+      <c r="H102">
+        <v>0.07106949379877003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04041367995902938</v>
+        <v>-0.009792709523670593</v>
       </c>
       <c r="C103">
-        <v>0.006641669547313202</v>
+        <v>0.01503147222641149</v>
       </c>
       <c r="D103">
-        <v>0.01393029324014595</v>
+        <v>0.001578618096481377</v>
       </c>
       <c r="E103">
-        <v>-0.04105232584963296</v>
+        <v>0.005863123612975866</v>
       </c>
       <c r="F103">
-        <v>0.008540230794731707</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01431938325700821</v>
+      </c>
+      <c r="G103">
+        <v>-0.004366384687168559</v>
+      </c>
+      <c r="H103">
+        <v>0.01161682427407417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.103639516124575</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.007533952994465356</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.980565259704305</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.0344668771721102</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.01565426932478844</v>
+      </c>
+      <c r="G104">
+        <v>-0.116665469495119</v>
+      </c>
+      <c r="H104">
+        <v>0.05649582363505395</v>
       </c>
     </row>
   </sheetData>
